--- a/Result/checksun/文化創意業.xlsx
+++ b/Result/checksun/文化創意業.xlsx
@@ -723,22 +723,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>629</v>
+        <v>-130</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -902,22 +902,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-2804</v>
+        <v>-2859</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1081,22 +1081,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>1400</v>
+        <v>1491</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1260,22 +1260,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-634</v>
+        <v>-1447</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1439,29 +1439,29 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>-40</v>
       </c>
       <c r="V6" t="n">
-        <v>-37</v>
+        <v>-49</v>
       </c>
       <c r="W6" t="n">
         <v>-32</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>140</v>
+        <v>-540</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1613,34 +1613,34 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>-40</v>
       </c>
       <c r="V7" t="n">
-        <v>-4</v>
+        <v>-16</v>
       </c>
       <c r="W7" t="n">
         <v>-41</v>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-291</v>
+        <v>-755</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1792,40 +1792,40 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>-40</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="W8" t="n">
         <v>-34</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-529</v>
+        <v>-1043</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1971,40 +1971,40 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>-40</v>
       </c>
       <c r="V9" t="n">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="W9" t="n">
         <v>27</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-599</v>
+        <v>-1348</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2150,40 +2150,40 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>-40</v>
       </c>
       <c r="V10" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="W10" t="n">
         <v>29</v>
       </c>
       <c r="X10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-22</v>
+        <v>-891</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2294,11 +2294,11 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.05</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>0.52</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2325,27 +2325,27 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-688</v>
+        <v>-1153</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-485</v>
+        <v>-425</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-846</v>
+        <v>-765</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-395</v>
+        <v>241</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>401</v>
+        <v>628</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>541</v>
+        <v>222</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>542</v>
+        <v>263</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>-439</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-162</v>
+        <v>-1966</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>94</v>
+        <v>-1572</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>212</v>
+        <v>-1767</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-28.11</t>
+          <t>-28.29</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-157</v>
+        <v>-1588</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-4.83</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-373</v>
+        <v>-1866</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-666</v>
+        <v>-1775</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-1647</v>
+        <v>-1120</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>-1444</v>
+        <v>8096</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-2686</v>
+        <v>8991</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-5552</v>
+        <v>11858</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-4336</v>
+        <v>9653</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>7927</v>
+        <v>10250</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>16451</v>
+        <v>15076</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>13876</v>
+        <v>11843</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>3750</v>
+        <v>1096</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>959</v>
+        <v>-1526</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>113</v>
+        <v>-6588</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>-1427</v>
+        <v>-5095</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-2334</v>
+        <v>-6368</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>-4090</v>
+        <v>6599</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>39735</v>
+        <v>33651</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>78943</v>
+        <v>70899</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>82569</v>
+        <v>25075</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>9011</v>
+        <v>14064</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-30747</v>
+        <v>-28589</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-71880</v>
+        <v>-89491</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-15095</v>
+        <v>-53028</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>22703</v>
+        <v>-63422</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>14386</v>
+        <v>-8613</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>20148</v>
+        <v>13306</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-20545</v>
+        <v>-49839</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-4016</v>
+        <v>17127</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-5571</v>
+        <v>21597</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>7379</v>
+        <v>27691</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>16350</v>
+        <v>26683</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>22138</v>
+        <v>32168</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>14944</v>
+        <v>22568</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>4793</v>
+        <v>14366</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>5030</v>
+        <v>13642</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>5368</v>
+        <v>9977</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>5540</v>
+        <v>8439</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>5000</v>
+        <v>8853</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>2256</v>
+        <v>6218</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11531,22 +11531,22 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U62" t="n">
@@ -11569,7 +11569,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>-228</v>
+        <v>-1022</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11712,22 +11712,22 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="U63" t="n">
@@ -11750,7 +11750,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>-110</v>
+        <v>-793</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -11893,22 +11893,22 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -11931,7 +11931,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-164</v>
+        <v>-741</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12074,22 +12074,22 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="X65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-984</v>
+        <v>0</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12255,22 +12255,22 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="U66" t="n">
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
@@ -12293,7 +12293,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-931</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="U67" t="n">
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="X67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
@@ -12474,7 +12474,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-590</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12612,27 +12612,27 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="U68" t="n">
@@ -12655,7 +12655,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -12793,27 +12793,27 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="U69" t="n">
@@ -12836,7 +12836,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -12974,27 +12974,27 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="U70" t="n">
@@ -13017,7 +13017,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13120,11 +13120,11 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>1.75</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -13151,27 +13151,27 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -13332,27 +13332,27 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="U72" t="n">
@@ -13478,11 +13478,11 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>56.8</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>100</v>
+        <v>0.35</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -13509,27 +13509,27 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="U73" t="n">
@@ -13741,7 +13741,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>860757</v>
+        <v>1129572</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>1198709</v>
+        <v>1260987</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>890366</v>
+        <v>827842</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>317810</v>
+        <v>260777</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>102045</v>
+        <v>107705</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-23579</v>
+        <v>-16530</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>-48995</v>
+        <v>-53798</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>-39767</v>
+        <v>-20766</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>-38945</v>
+        <v>14189</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>-8038</v>
+        <v>7574</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>45427</v>
+        <v>58432</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>45994</v>
+        <v>106710</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -15973,12 +15973,12 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="U86" t="n">
@@ -16009,7 +16009,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>-4759</v>
+        <v>-8079</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -16198,7 +16198,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>-4443</v>
+        <v>-5486</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-6475</v>
+        <v>-3330</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16535,12 +16535,12 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -16576,7 +16576,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>-2272</v>
+        <v>-1220</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -16734,7 +16734,7 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="U90" t="n">
@@ -16765,7 +16765,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-909</v>
+        <v>1366</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -16913,17 +16913,17 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U91" t="n">
@@ -16954,7 +16954,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>1448</v>
+        <v>5874</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -17135,7 +17135,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-1048</v>
+        <v>4495</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -17316,7 +17316,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>-134</v>
+        <v>6445</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -17497,7 +17497,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1697</v>
+        <v>6156</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17645,17 +17645,17 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="U95" t="n">
@@ -17678,7 +17678,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>2100</v>
+        <v>5878</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -17821,22 +17821,22 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="U96" t="n">
@@ -17859,7 +17859,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>2409</v>
+        <v>5918</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18002,22 +18002,22 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="U97" t="n">
@@ -18030,7 +18030,7 @@
         <v>35</v>
       </c>
       <c r="X97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>2729</v>
+        <v>5280</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>-63812</v>
+        <v>246934</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>-247778</v>
+        <v>155676</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>56348</v>
+        <v>260311</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>256061</v>
+        <v>343888</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>416034</v>
+        <v>474346</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>208282</v>
+        <v>241429</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>54685</v>
+        <v>90459</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>-12580</v>
+        <v>50561</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>-4319</v>
+        <v>16830</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>33142</v>
+        <v>10726</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>70892</v>
+        <v>53209</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>37466</v>
+        <v>41972</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>-9631</v>
+        <v>-5025</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>-6109</v>
+        <v>-3056</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>-1824</v>
+        <v>4042</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>2521</v>
+        <v>4152</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-661</v>
+        <v>3984</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>4679</v>
+        <v>6219</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>2085</v>
+        <v>2973</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>3714</v>
+        <v>4344</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>1187</v>
+        <v>1267</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>-454</v>
+        <v>-1168</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>931</v>
+        <v>978</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>353</v>
+        <v>-650</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>-585422</v>
+        <v>368995</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>-219775</v>
+        <v>514531</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>420022</v>
+        <v>731639</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>939818</v>
+        <v>1066691</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>601524</v>
+        <v>842340</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>222258</v>
+        <v>366369</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>14599</v>
+        <v>107188</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>132782</v>
+        <v>224006</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>89359</v>
+        <v>122249</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>112274</v>
+        <v>55681</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>108034</v>
+        <v>66796</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>54752</v>
+        <v>-42321</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>41489</v>
+        <v>92163</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>49132</v>
+        <v>71908</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>89886</v>
+        <v>90747</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>51743</v>
+        <v>50107</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>24003</v>
+        <v>24272</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>4414</v>
+        <v>5046</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>-1069</v>
+        <v>1268</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -26174,7 +26174,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>-1227</v>
+        <v>2674</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -26353,7 +26353,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>-3553</v>
+        <v>1570</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -26532,7 +26532,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-567</v>
+        <v>2038</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>1496</v>
+        <v>3458</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>4185</v>
+        <v>5898</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>-68</v>
+        <v>1014</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>-56</v>
+        <v>944</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>1276</v>
+        <v>3447</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-317</v>
+        <v>382</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>-594</v>
+        <v>2989</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>1139</v>
+        <v>2929</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>1399</v>
+        <v>1943</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>1594</v>
+        <v>2272</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>1032</v>
+        <v>1346</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>-700</v>
+        <v>-801</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>1989</v>
+        <v>1674</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>758</v>
+        <v>1185</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>-101308</v>
+        <v>1115919</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>30298</v>
+        <v>1053039</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>834607</v>
+        <v>1121406</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>1129060</v>
+        <v>1253637</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>960132</v>
+        <v>1061382</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>231534</v>
+        <v>327762</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>88167</v>
+        <v>138882</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>62609</v>
+        <v>112730</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>55265</v>
+        <v>84521</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30926,7 +30926,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>36410</v>
+        <v>38876</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>38641</v>
+        <v>38810</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>40963</v>
+        <v>60973</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>17082</v>
+        <v>13745</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>19016</v>
+        <v>-7730</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>16222</v>
+        <v>-16545</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>7716</v>
+        <v>-16901</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-4200</v>
+        <v>-21036</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>-9495</v>
+        <v>-21366</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>-11053</v>
+        <v>-16475</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>-22546</v>
+        <v>-9164</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>-23272</v>
+        <v>-3779</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>-13564</v>
+        <v>-3487</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>5710</v>
+        <v>7713</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>11401</v>
+        <v>5060</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>36237</v>
+        <v>-31417</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>18297</v>
+        <v>-154269</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>-303832</v>
+        <v>-106753</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>-145567</v>
+        <v>-71457</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34453,7 +34453,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>-189512</v>
+        <v>-158734</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>191378</v>
+        <v>187607</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>77913</v>
+        <v>62452</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -35020,7 +35020,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>16946</v>
+        <v>17030</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>5701</v>
+        <v>-14063</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>-3803</v>
+        <v>-23898</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>13832</v>
+        <v>-2810</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -35744,7 +35744,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>-9472</v>
+        <v>-32767</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -35925,7 +35925,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>15819</v>
+        <v>60436</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -36106,7 +36106,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>13659</v>
+        <v>57917</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>15456</v>
+        <v>58835</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>46135</v>
+        <v>79863</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>5028</v>
+        <v>73865</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>5512</v>
+        <v>42466</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -37011,7 +37011,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>-1518</v>
+        <v>9295</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37192,7 +37192,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>39230</v>
+        <v>44470</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>37867</v>
+        <v>44809</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>35246</v>
+        <v>13214</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -37735,7 +37735,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>29607</v>
+        <v>19021</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -37916,7 +37916,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>-913</v>
+        <v>-38545</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-2252</v>
+        <v>364870</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>-143320</v>
+        <v>226608</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>-183895</v>
+        <v>333234</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>35484</v>
+        <v>344134</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>232683</v>
+        <v>311313</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>413614</v>
+        <v>508834</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>331638</v>
+        <v>411660</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39414,7 +39414,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>137245</v>
+        <v>329544</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>103515</v>
+        <v>179220</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>-22988</v>
+        <v>139449</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -39975,7 +39975,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>-58615</v>
+        <v>233482</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>-8295</v>
+        <v>144695</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40298,27 +40298,27 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U218" t="n">
@@ -40341,7 +40341,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40442,11 +40442,11 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>100</v>
+        <v>-1.86</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="N219" t="n">
@@ -40473,27 +40473,27 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U219" t="n">
@@ -40516,7 +40516,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40652,27 +40652,27 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U220" t="n">
@@ -40695,7 +40695,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -40796,11 +40796,11 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>100</v>
+        <v>-3.61</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="N221" t="n">
@@ -40827,27 +40827,27 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U221" t="n">
@@ -40870,7 +40870,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -41006,12 +41006,12 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -41021,12 +41021,12 @@
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T222" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U222" t="n">
@@ -41185,12 +41185,12 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -41200,12 +41200,12 @@
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U223" t="n">
@@ -41329,11 +41329,11 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>100</v>
+        <v>-4.77</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="N224" t="n">
@@ -41360,27 +41360,27 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T224" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U224" t="n">
@@ -41539,27 +41539,27 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T225" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U225" t="n">
@@ -41582,7 +41582,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>-506</v>
+        <v>0</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -41718,27 +41718,27 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T226" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U226" t="n">
@@ -41761,7 +41761,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>-948</v>
+        <v>0</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -41897,27 +41897,27 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U227" t="n">
@@ -41930,7 +41930,7 @@
         <v>0</v>
       </c>
       <c r="X227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y227" t="inlineStr"/>
       <c r="Z227" t="inlineStr"/>
@@ -42076,27 +42076,27 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U228" t="n">
@@ -42109,7 +42109,7 @@
         <v>0</v>
       </c>
       <c r="X228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y228" t="inlineStr"/>
       <c r="Z228" t="inlineStr"/>
@@ -42220,11 +42220,11 @@
         <v>1.06</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>100</v>
+        <v>-19.91</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="N229" t="n">
@@ -42251,22 +42251,22 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
@@ -42284,7 +42284,7 @@
         <v>0</v>
       </c>
       <c r="X229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y229" t="inlineStr"/>
       <c r="Z229" t="inlineStr"/>
@@ -42395,11 +42395,11 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N230" t="n">
@@ -42426,31 +42426,31 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T230" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="U230" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V230" t="n">
         <v>0</v>
@@ -42570,11 +42570,11 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -42588,7 +42588,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N231" t="n">
@@ -42601,31 +42601,31 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U231" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V231" t="n">
         <v>0</v>
@@ -42745,11 +42745,11 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -42763,7 +42763,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N232" t="n">
@@ -42776,31 +42776,31 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U232" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V232" t="n">
         <v>0</v>
@@ -42920,11 +42920,11 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N233" t="n">
@@ -42951,31 +42951,31 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U233" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V233" t="n">
         <v>0</v>
@@ -43095,11 +43095,11 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N234" t="n">
@@ -43126,31 +43126,31 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T234" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U234" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
@@ -43270,11 +43270,11 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -43288,7 +43288,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N235" t="n">
@@ -43301,31 +43301,31 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T235" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U235" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
@@ -43445,11 +43445,11 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N236" t="n">
@@ -43476,31 +43476,31 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U236" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -43509,7 +43509,7 @@
         <v>0</v>
       </c>
       <c r="X236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y236" t="inlineStr"/>
       <c r="Z236" t="inlineStr"/>
@@ -43620,11 +43620,11 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -43638,7 +43638,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N237" t="n">
@@ -43651,31 +43651,31 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U237" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -43684,7 +43684,7 @@
         <v>0</v>
       </c>
       <c r="X237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y237" t="inlineStr"/>
       <c r="Z237" t="inlineStr"/>
@@ -43795,11 +43795,11 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N238" t="n">
@@ -43826,31 +43826,31 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="T238" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U238" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -43859,7 +43859,7 @@
         <v>0</v>
       </c>
       <c r="X238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y238" t="inlineStr"/>
       <c r="Z238" t="inlineStr"/>
@@ -43970,11 +43970,11 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="N239" t="n">
@@ -44001,31 +44001,31 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S239" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="T239" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U239" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -44180,31 +44180,31 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="T240" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U240" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -44359,31 +44359,31 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S241" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="T241" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="U241" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -44589,7 +44589,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>-1206638</v>
+        <v>2332950</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -44778,7 +44778,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>198204</v>
+        <v>846141</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>-1108998</v>
+        <v>1922527</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>2369678</v>
+        <v>3998547</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>-79198</v>
+        <v>1015424</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -45534,7 +45534,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>2625660</v>
+        <v>3363473</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -45723,7 +45723,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>1169910</v>
+        <v>1689222</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>727135</v>
+        <v>1248767</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>405865</v>
+        <v>730479</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>458959</v>
+        <v>479814</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -46479,7 +46479,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>367487</v>
+        <v>521259</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -46668,7 +46668,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>331948</v>
+        <v>528836</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -46857,7 +46857,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>3879389</v>
+        <v>5936228</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47046,7 +47046,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>2040895</v>
+        <v>3748710</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47235,7 +47235,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>1579172</v>
+        <v>6738904</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -47424,7 +47424,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>708347</v>
+        <v>5291507</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -47613,7 +47613,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-2182172</v>
+        <v>5538312</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>1574165</v>
+        <v>6234647</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>1348492</v>
+        <v>2709767</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>3889987</v>
+        <v>3022784</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -48345,7 +48345,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>3585567</v>
+        <v>3629654</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -48526,7 +48526,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>3234668</v>
+        <v>4964160</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -48707,7 +48707,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>3830497</v>
+        <v>5768115</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>1074915</v>
+        <v>1523809</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>91513</v>
+        <v>104549</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>51420</v>
+        <v>72901</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>-27917</v>
+        <v>54015</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>-22444</v>
+        <v>52018</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -49825,7 +49825,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>-56242</v>
+        <v>42569</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50012,7 +50012,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>55393</v>
+        <v>124167</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>35480</v>
+        <v>65097</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>77723</v>
+        <v>90948</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -50573,7 +50573,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>26539</v>
+        <v>55789</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -50760,7 +50760,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>38982</v>
+        <v>44929</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>21088</v>
+        <v>32571</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51118,7 +51118,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>42235</v>
+        <v>79441</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51305,7 +51305,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>-58015</v>
+        <v>143533</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -51494,7 +51494,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>4358</v>
+        <v>172647</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -51683,7 +51683,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>142806</v>
+        <v>190097</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -51872,7 +51872,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>198381</v>
+        <v>205061</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -52061,7 +52061,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>152356</v>
+        <v>170107</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52250,7 +52250,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>38152</v>
+        <v>44786</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -52431,7 +52431,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>3167</v>
+        <v>2879</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -52612,7 +52612,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>15933</v>
+        <v>15915</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -52793,7 +52793,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>9139</v>
+        <v>5336</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -52974,7 +52974,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>3513</v>
+        <v>-2241</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>1818</v>
+        <v>-1115</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53336,7 +53336,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>-2505</v>
+        <v>-8068</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -53479,22 +53479,22 @@
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T290" t="inlineStr">
         <is>
-          <t>-2.70</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="U290" t="n">
@@ -53507,7 +53507,7 @@
         <v>0</v>
       </c>
       <c r="X290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y290" t="inlineStr"/>
       <c r="Z290" t="inlineStr"/>
@@ -53517,7 +53517,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>4542</v>
+        <v>0</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -53653,27 +53653,27 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T291" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="U291" t="n">
@@ -53686,7 +53686,7 @@
         <v>0</v>
       </c>
       <c r="X291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y291" t="inlineStr"/>
       <c r="Z291" t="inlineStr"/>
@@ -53696,7 +53696,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>6850</v>
+        <v>0</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -53832,27 +53832,27 @@
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="U292" t="n">
@@ -53865,7 +53865,7 @@
         <v>0</v>
       </c>
       <c r="X292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y292" t="inlineStr"/>
       <c r="Z292" t="inlineStr"/>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -54011,27 +54011,27 @@
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t>-3.40</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>-4.03</t>
+          <t>-2.87</t>
         </is>
       </c>
       <c r="U293" t="n">
@@ -54190,12 +54190,12 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -54205,12 +54205,12 @@
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="T294" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-3.03</t>
         </is>
       </c>
       <c r="U294" t="n">
@@ -54334,11 +54334,11 @@
         <v>1.1</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>100</v>
+        <v>23.62</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -54352,7 +54352,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="N295" t="n">
@@ -54365,27 +54365,27 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>-3.41</t>
         </is>
       </c>
       <c r="T295" t="inlineStr">
         <is>
-          <t>-4.20</t>
+          <t>-3.03</t>
         </is>
       </c>
       <c r="U295" t="n">
@@ -54544,27 +54544,27 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="S296" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="T296" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-2.93</t>
         </is>
       </c>
       <c r="U296" t="n">
@@ -54587,7 +54587,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>-291</v>
+        <v>-2628</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -54723,27 +54723,27 @@
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>-4.59</t>
+          <t>-3.34</t>
         </is>
       </c>
       <c r="T297" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="U297" t="n">
@@ -54766,7 +54766,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>-215</v>
+        <v>-2474</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -54867,11 +54867,11 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>100</v>
+        <v>22.33</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -54885,7 +54885,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="N298" t="n">
@@ -54898,27 +54898,27 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>-4.40</t>
+          <t>-3.21</t>
         </is>
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>-3.81</t>
+          <t>-2.69</t>
         </is>
       </c>
       <c r="U298" t="n">
@@ -54941,7 +54941,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>-614</v>
+        <v>0</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55082,22 +55082,22 @@
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>-4.40</t>
+          <t>-3.08</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>-3.66</t>
+          <t>-2.56</t>
         </is>
       </c>
       <c r="U299" t="n">
@@ -55120,7 +55120,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>-1073</v>
+        <v>0</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55256,27 +55256,27 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>-4.27</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="U300" t="n">
@@ -55299,7 +55299,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>-1471</v>
+        <v>0</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -55435,27 +55435,27 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>-4.18</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="T301" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="U301" t="n">
@@ -55478,7 +55478,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>-1686</v>
+        <v>0</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -55657,7 +55657,7 @@
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>1164</v>
+        <v>5782</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -55838,7 +55838,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>1150</v>
+        <v>4796</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -56019,7 +56019,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>1707</v>
+        <v>4706</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -56200,7 +56200,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>2475</v>
+        <v>3775</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>2606</v>
+        <v>2748</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -56562,7 +56562,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>2684</v>
+        <v>1889</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -56743,7 +56743,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>2143</v>
+        <v>929</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -56924,7 +56924,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>1040</v>
+        <v>195</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -57105,7 +57105,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>315</v>
+        <v>-880</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -57286,7 +57286,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>-843</v>
+        <v>-1239</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -57467,7 +57467,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>-898</v>
+        <v>-1177</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -57648,7 +57648,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>-1110</v>
+        <v>-1030</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>

--- a/Result/checksun/文化創意業.xlsx
+++ b/Result/checksun/文化創意業.xlsx
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1159,13 +1159,13 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>-1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2024,20 +2024,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>-1</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2244,17 +2244,17 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2458,20 +2458,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3764,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3973,16 +3973,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4411,20 +4411,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4633,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4849,16 +4849,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -5502,16 +5502,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5719,20 +5719,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -5936,10 +5936,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
         <v>-3</v>
@@ -6153,16 +6153,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6370,16 +6370,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6587,16 +6587,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6804,20 +6804,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7024,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7238,20 +7238,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7885,16 +7885,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8104,20 +8104,20 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -8326,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>-3</v>
@@ -8542,16 +8542,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B38" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8761,16 +8761,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B39" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -8980,20 +8980,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B40" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -9199,20 +9199,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>59</v>
+        <v>-12</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9421,17 +9421,17 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9640,17 +9640,17 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10293,13 +10293,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10509,13 +10509,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -10728,13 +10728,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="n">
         <v>3</v>
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -11607,13 +11607,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -12045,13 +12045,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -12698,17 +12698,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -12917,10 +12917,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>3</v>
@@ -13133,16 +13133,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -13355,17 +13355,17 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -13571,13 +13571,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -13793,13 +13793,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -15096,20 +15096,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>59</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D68" t="n">
         <v>9</v>
       </c>
-      <c r="B68" t="n">
-        <v>75</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>10</v>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15319,16 +15319,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C69" t="n">
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15538,20 +15538,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="n">
+        <v>26</v>
+      </c>
+      <c r="C70" t="n">
         <v>3</v>
       </c>
-      <c r="B70" t="n">
-        <v>47</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
       <c r="D70" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15757,20 +15757,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -15976,13 +15976,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B72" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>-6</v>
@@ -16195,20 +16195,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B73" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C73" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -16414,20 +16414,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16633,20 +16633,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16852,20 +16852,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -18583,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -18802,17 +18802,17 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19016,20 +19016,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19238,13 +19238,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -19888,20 +19888,20 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -20111,20 +20111,20 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B91" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -20333,10 +20333,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>-2</v>
@@ -20549,20 +20549,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>14</v>
+      </c>
+      <c r="C93" t="n">
         <v>1</v>
       </c>
-      <c r="B93" t="n">
-        <v>22</v>
-      </c>
-      <c r="C93" t="n">
-        <v>3</v>
-      </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -20771,13 +20771,13 @@
         <v>-2</v>
       </c>
       <c r="B94" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -20987,16 +20987,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -21209,17 +21209,17 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21425,16 +21425,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -21644,20 +21644,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22297,16 +22297,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D101" t="n">
         <v>1</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -22519,13 +22519,13 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -22957,13 +22957,13 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -23176,13 +23176,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23395,13 +23395,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23614,17 +23614,17 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23833,10 +23833,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -24049,20 +24049,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24702,20 +24702,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -24933,20 +24933,20 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C113" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -25159,13 +25159,13 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -25379,20 +25379,20 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D115" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -25602,16 +25602,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C116" t="n">
         <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -25825,16 +25825,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -26048,20 +26048,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C118" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>37</v>
+        <v>-5</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -26271,16 +26271,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -26494,20 +26494,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -27159,20 +27159,20 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="B123" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>-35</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -27380,20 +27380,20 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B124" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -27601,16 +27601,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B125" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C125" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -27822,16 +27822,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B126" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -28043,16 +28043,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C127" t="n">
         <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -28264,16 +28264,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B128" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28488,17 +28488,17 @@
         <v>-4</v>
       </c>
       <c r="B129" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C129" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D129" t="n">
         <v>-4</v>
       </c>
-      <c r="D129" t="n">
-        <v>33</v>
-      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -28714,16 +28714,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -28943,20 +28943,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -29618,16 +29618,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="B134" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -29835,20 +29835,20 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B135" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D135" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -30052,13 +30052,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B136" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D136" t="n">
         <v>-2</v>
@@ -30269,16 +30269,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B137" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C137" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -30486,16 +30486,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
+        <v>6</v>
+      </c>
+      <c r="B138" t="n">
+        <v>10</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10</v>
+      </c>
+      <c r="D138" t="n">
         <v>3</v>
-      </c>
-      <c r="B138" t="n">
-        <v>13</v>
-      </c>
-      <c r="C138" t="n">
-        <v>7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>5</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -30706,10 +30706,10 @@
         <v>-4</v>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="n">
         <v>2</v>
@@ -30920,20 +30920,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31137,20 +31137,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31354,16 +31354,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -32001,16 +32001,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
+        <v>3</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7</v>
+      </c>
+      <c r="C145" t="n">
         <v>2</v>
       </c>
-      <c r="B145" t="n">
-        <v>12</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -32450,10 +32450,10 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C147" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -32664,13 +32664,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -32881,16 +32881,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D149" t="n">
         <v>1</v>
-      </c>
-      <c r="B149" t="n">
-        <v>10</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -33098,16 +33098,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B150" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C150" t="n">
         <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33315,20 +33315,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33532,20 +33532,20 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -33749,20 +33749,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34396,16 +34396,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D156" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -34615,20 +34615,20 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -34837,17 +34837,17 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D158" t="n">
-        <v>-21</v>
+        <v>-4</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -35053,16 +35053,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B159" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35272,20 +35272,20 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -35494,17 +35494,17 @@
         <v>-2</v>
       </c>
       <c r="B161" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -35713,13 +35713,13 @@
         <v>-3</v>
       </c>
       <c r="B162" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C162" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D162" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -35929,20 +35929,20 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -36151,17 +36151,17 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -36804,13 +36804,13 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D167" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -37032,16 +37032,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -37259,13 +37259,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -37489,7 +37489,7 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C170" t="n">
         <v>2</v>
@@ -37716,17 +37716,17 @@
         <v>-2</v>
       </c>
       <c r="B171" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C171" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D171" t="n">
-        <v>-37</v>
+        <v>-4</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -37940,20 +37940,20 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -38170,17 +38170,17 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D173" t="n">
-        <v>63</v>
+        <v>-36</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38394,20 +38394,20 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -38624,17 +38624,17 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39282,13 +39282,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B178" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D178" t="n">
         <v>3</v>
@@ -39504,13 +39504,13 @@
         <v>-1</v>
       </c>
       <c r="B179" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -39720,16 +39720,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B180" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C180" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -39939,16 +39939,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -40158,16 +40158,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D182" t="n">
         <v>1</v>
-      </c>
-      <c r="B182" t="n">
-        <v>8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>-3</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -40380,17 +40380,17 @@
         <v>2</v>
       </c>
       <c r="B183" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -40596,20 +40596,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
         <v>-1</v>
       </c>
       <c r="D184" t="n">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40815,20 +40815,20 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -41034,20 +41034,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41687,16 +41687,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B189" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C189" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D189" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -41908,20 +41908,20 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="B190" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D190" t="n">
-        <v>-31</v>
+        <v>-3</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -42125,20 +42125,20 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="B191" t="n">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C191" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>-38</v>
+        <v>-3</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -42342,16 +42342,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B192" t="n">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>-20</v>
+        <v>-31</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -42559,20 +42559,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="B193" t="n">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C193" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="D193" t="n">
-        <v>-10</v>
+        <v>-35</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -42776,20 +42776,20 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B194" t="n">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -42993,16 +42993,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C195" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D195" t="n">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -43210,20 +43210,20 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -43427,20 +43427,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -44074,20 +44074,20 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="B200" t="n">
         <v>8</v>
       </c>
       <c r="C200" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D200" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -44291,20 +44291,20 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="B201" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C201" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -44508,16 +44508,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B202" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C202" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44723,20 +44723,20 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="B203" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D203" t="n">
         <v>-1</v>
       </c>
-      <c r="D203" t="n">
-        <v>-2</v>
-      </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -44938,20 +44938,20 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D204" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -45153,13 +45153,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B205" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C205" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D205" t="n">
         <v>4</v>
@@ -45368,20 +45368,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B206" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D206" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -45583,13 +45583,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -45796,20 +45796,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -46431,16 +46431,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B211" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C211" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -46663,13 +46663,13 @@
         <v>20</v>
       </c>
       <c r="B212" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C212" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D212" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -46885,16 +46885,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B213" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D213" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -47102,20 +47102,20 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -47317,16 +47317,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -47968,10 +47968,10 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -48173,20 +48173,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -48808,16 +48808,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B222" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C222" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D222" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -49031,20 +49031,20 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B223" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -49250,16 +49250,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B224" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C224" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D224" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -49469,20 +49469,20 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="B225" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="D225" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -49688,16 +49688,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C226" t="n">
         <v>-5</v>
       </c>
       <c r="D226" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -49907,20 +49907,20 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B227" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C227" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D227" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -50126,20 +50126,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B228" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C228" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>44</v>
+        <v>-7</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -50345,20 +50345,20 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -50564,20 +50564,20 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -51217,16 +51217,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C233" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -51443,10 +51443,10 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>-1</v>
@@ -51663,16 +51663,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B235" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
         <v>1</v>
-      </c>
-      <c r="D235" t="n">
-        <v>-3</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -51889,13 +51889,13 @@
         <v>-1</v>
       </c>
       <c r="B236" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -52109,20 +52109,20 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B237" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C237" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -52335,13 +52335,13 @@
         <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -52558,17 +52558,17 @@
         <v>-1</v>
       </c>
       <c r="B239" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C239" t="n">
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>42</v>
+        <v>-12</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -52781,13 +52781,13 @@
         <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -53009,20 +53009,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -53690,13 +53690,13 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D244" t="n">
         <v>2</v>
@@ -53919,20 +53919,20 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B245" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C245" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D245" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -54148,20 +54148,20 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
+        <v>3</v>
+      </c>
+      <c r="B246" t="n">
+        <v>15</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3</v>
+      </c>
+      <c r="D246" t="n">
         <v>5</v>
       </c>
-      <c r="B246" t="n">
-        <v>27</v>
-      </c>
-      <c r="C246" t="n">
-        <v>0</v>
-      </c>
-      <c r="D246" t="n">
-        <v>7</v>
-      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -54377,20 +54377,20 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -54606,16 +54606,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" t="n">
+        <v>15</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D248" t="n">
         <v>2</v>
-      </c>
-      <c r="B248" t="n">
-        <v>19</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2</v>
-      </c>
-      <c r="D248" t="n">
-        <v>-3</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -54835,16 +54835,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B249" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C249" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -55064,20 +55064,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B250" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D250" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -55285,16 +55285,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -55506,20 +55506,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -56165,20 +56165,20 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -56388,16 +56388,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B256" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -56610,10 +56610,10 @@
         <v>3</v>
       </c>
       <c r="B257" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C257" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D257" t="n">
         <v>3</v>
@@ -56826,10 +56826,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B258" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C258" t="n">
         <v>4</v>
@@ -57045,16 +57045,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
+        <v>0</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D259" t="n">
         <v>1</v>
-      </c>
-      <c r="B259" t="n">
-        <v>9</v>
-      </c>
-      <c r="C259" t="n">
-        <v>2</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -57264,20 +57264,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -57483,20 +57483,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C261" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -57705,17 +57705,17 @@
         <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -57921,20 +57921,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -59006,14 +59006,14 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -59209,20 +59209,20 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -59854,14 +59854,14 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -60057,20 +60057,20 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -60274,20 +60274,20 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -60917,20 +60917,20 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B277" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>-80</v>
+        <v>15</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -61136,16 +61136,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B278" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C278" t="n">
         <v>-2</v>
       </c>
       <c r="D278" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -61355,16 +61355,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B279" t="n">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>-33</v>
+        <v>-98</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -61574,20 +61574,20 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" t="n">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D280" t="n">
-        <v>-17</v>
+        <v>-6</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -61793,20 +61793,20 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B281" t="n">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D281" t="n">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -62012,16 +62012,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B282" t="n">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C282" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -62231,20 +62231,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B283" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C283" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D283" t="n">
-        <v>85</v>
+        <v>-4</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -62450,20 +62450,20 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -62669,20 +62669,20 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
